--- a/biology/Zoologie/Austrotengella_plimeri/Austrotengella_plimeri.xlsx
+++ b/biology/Zoologie/Austrotengella_plimeri/Austrotengella_plimeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrotengella plimeri est une espèce d'araignées aranéomorphes de la famille des Zoropsidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrotengella plimeri est une espèce d'araignées aranéomorphes de la famille des Zoropsidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans les monts Tweed.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans les monts Tweed.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 4,45 mm de long sur 3,44 mm et l'abdomen mm de long sur mm. La carapace de la femelle paratype mesure 2,41 mm de long sur 2,03 mm et l'abdomen 2,53 mm de long sur 2,03 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 4,45 mm de long sur 3,44 mm et l'abdomen mm de long sur mm. La carapace de la femelle paratype mesure 2,41 mm de long sur 2,03 mm et l'abdomen 2,53 mm de long sur 2,03 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ian Plimer[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ian Plimer.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 2012 : Revisions of Australian ground-hunting spiders. V. A new lycosoid genus from eastern Australia (Araneae: Tengellidae). Zootaxa, no 3305, p. 28-52.</t>
         </is>
